--- a/data/Dataset_overview.xlsx
+++ b/data/Dataset_overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maikwolfram-schauerte/Documents/Teaching/SoSe_2025/Teamproject_2025/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siha\nextcloud\Integrative Transcriptomics\Lehre\Teamprojekte\SoSe2025\Gene_classification_project\Organisational\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEB7209-708D-D44D-B72E-986EB49E241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90EF18-0EB8-4137-B85F-9632691D3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1280" windowWidth="38400" windowHeight="24000" xr2:uid="{BC18472E-379D-C547-B5D4-DF4563A746EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BC18472E-379D-C547-B5D4-DF4563A746EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>Dataset</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>GEO/SRA</t>
+  </si>
+  <si>
+    <t>Bold Binders</t>
+  </si>
+  <si>
+    <t>Vivid Virions</t>
+  </si>
+  <si>
+    <t>Precise Phages</t>
   </si>
 </sst>
 </file>
@@ -361,15 +370,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -377,24 +398,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,22 +777,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AC8996-7CC8-AA45-99F3-D71782756BD1}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.625" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.875" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,427 +815,493 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>38</v>
+      <c r="G22" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
+    <sortCondition ref="G2:G22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>